--- a/라벨 엑셀 양식.xlsx
+++ b/라벨 엑셀 양식.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\qr_label_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63B54A-04D0-4539-B9B0-4574D23192A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5588863-6E19-4662-914D-CF152D3B2444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="라벨" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
   <si>
     <t>업 체 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,7 +54,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +85,13 @@
       <name val="NanumGothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,10 +171,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +188,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -183,11 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -501,66 +522,499 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="3.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="C2" s="7"/>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+      <c r="C3" s="8"/>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="C4" s="8"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="C5" s="8"/>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
+      <c r="C7" s="9"/>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="10" spans="1:7" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="9"/>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="9"/>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="28" spans="1:7" ht="18" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="9"/>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="37" spans="1:7" ht="18" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="9"/>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="20">
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="E35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
